--- a/Registro tiempos.xlsx
+++ b/Registro tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Desktop\UdeA\2025 - 2\Metodos\DBCA\DBCA-SetPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC3EDF1-99CA-4906-870D-2DC75CC762E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFCD83D-9E21-4550-9DC6-60183159AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -75,6 +75,21 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,9 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,10 +336,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -330,7 +347,7 @@
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -344,8 +361,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10.7</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -356,8 +375,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>7.76</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -368,8 +389,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>11.2</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -380,8 +403,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10.83</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -392,7 +417,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6.41</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -404,7 +432,10 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10.84</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -416,7 +447,10 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10.28</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -428,7 +462,10 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9.27</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -441,6 +478,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8.98</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,6 +492,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5.46</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -463,6 +506,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3.28</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,6 +520,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5.08</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -483,6 +532,9 @@
       <c r="D13" s="1">
         <v>12</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Registro tiempos.xlsx
+++ b/Registro tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Desktop\UdeA\2025 - 2\Metodos\DBCA\DBCA-SetPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFCD83D-9E21-4550-9DC6-60183159AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCDF81-CDC5-483C-AB10-2E8AFD2FC9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,11 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,7 +344,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -348,13 +353,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -362,13 +367,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>10.7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1">
@@ -376,13 +381,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>7.76</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -390,13 +395,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>11.2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -404,13 +409,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>10.83</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1">
@@ -418,13 +423,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>6.41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
@@ -433,13 +438,13 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>10.84</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
@@ -448,13 +453,13 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>10.28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
@@ -463,13 +468,13 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>9.27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1">
@@ -478,13 +483,13 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>8.98</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1">
@@ -492,13 +497,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>5.46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1">
@@ -506,13 +511,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>3.28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1">
@@ -520,13 +525,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>5.08</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1">
@@ -534,7 +539,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Registro tiempos.xlsx
+++ b/Registro tiempos.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Desktop\UdeA\2025 - 2\Metodos\DBCA\DBCA-SetPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCDF81-CDC5-483C-AB10-2E8AFD2FC9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15B769-44D9-4A8A-AB7A-6511957AA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="# Generar el diseño DBCA (Orden" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="ANOVA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>tiempo</t>
   </si>
@@ -31,9 +45,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Orden Cronológico Real</t>
-  </si>
-  <si>
     <t>VSCode</t>
   </si>
   <si>
@@ -53,13 +64,40 @@
   </si>
   <si>
     <t>Netbeans</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sumas Cuadradas</t>
+  </si>
+  <si>
+    <t>Grados de Libertad</t>
+  </si>
+  <si>
+    <t>Factor de Varianza</t>
+  </si>
+  <si>
+    <t>Medias Cuadradas</t>
+  </si>
+  <si>
+    <t>Estadístico de Prueba</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -92,6 +130,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -123,6 +168,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,15 +388,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -362,8 +409,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -371,10 +418,10 @@
         <v>10.7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -385,10 +432,10 @@
         <v>7.76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -399,10 +446,10 @@
         <v>11.2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -413,10 +460,10 @@
         <v>10.83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -427,10 +474,10 @@
         <v>6.41</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -442,10 +489,10 @@
         <v>10.84</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -457,10 +504,10 @@
         <v>10.28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -472,10 +519,10 @@
         <v>9.27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -487,10 +534,10 @@
         <v>8.98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -501,10 +548,10 @@
         <v>5.46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -515,10 +562,10 @@
         <v>3.28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>11</v>
@@ -529,10 +576,10 @@
         <v>5.08</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -540,9 +587,126 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
+    </row>
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE645C04-BAE7-4A6C-9971-2D349DE2E4AA}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>28.8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>9.6010000000000009</v>
+      </c>
+      <c r="E2">
+        <v>7.7069999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>43.55</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>21.773</v>
+      </c>
+      <c r="E3">
+        <v>17.477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>7.47</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1.246</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>79.819999999999993</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Registro tiempos.xlsx
+++ b/Registro tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Desktop\UdeA\2025 - 2\Metodos\DBCA\DBCA-SetPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15B769-44D9-4A8A-AB7A-6511957AA9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A795766-9362-44A9-A6E6-E7BCA45B4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
